--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1283055.144700896</v>
+        <v>1280803.064989688</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283201</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>286.8521209076247</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826034</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.7576914549238</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>40.3583228154685</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>37.90969376287498</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.76470074482967</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>17.25588147840211</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>150.2062474346973</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.6649597713317</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>171.1167978045328</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>67.24416875037112</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>68.85005436466977</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419834264</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.18447438924</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699837</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936206</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238267</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161861753</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.92847288552876</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327293</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892427987</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>215.3025979624056</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1979.067756754391</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1610.105239813979</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794324</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.667596818512</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4528,10 +4528,10 @@
         <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836216</v>
+        <v>550.0410834832817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1681.836054204828</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1312.873537264416</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>954.607838657666</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>568.8195860594217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>561.8740853102182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>146.8016351552147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4607,10 +4607,10 @@
         <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>83.94229974370072</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,31 +4823,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348092</v>
+        <v>1899.13013587303</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.00073137228</v>
+        <v>1899.13013587303</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>917.616325937273</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C10" t="n">
-        <v>748.6801430093661</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>598.5635035970304</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>450.6504100146373</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>303.7604625167269</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0576258914458</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1548.04692080906</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1320.057369911043</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1099.264790767513</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797183</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.868625753638</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257311</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121667</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>197.0043242297736</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,61 +5729,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5996,40 +5996,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
         <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>559.7594328861248</v>
+        <v>580.899304487664</v>
       </c>
       <c r="C31" t="n">
-        <v>390.823249958218</v>
+        <v>411.9631215597572</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7066105458822</v>
+        <v>261.8464821474214</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>261.8464821474214</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2425.823211978716</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2242.968377633621</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2023.366912656562</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.29168600076</v>
+        <v>1755.431557602299</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.607197794873</v>
+        <v>1500.747069396412</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.190027757912</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X31" t="n">
-        <v>962.2004768598947</v>
+        <v>983.3403484614339</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.4078977163646</v>
+        <v>762.5477693179038</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,10 +6692,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7154,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075805</v>
@@ -7181,13 +7181,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>1872.470231673185</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2296.093381168253</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>344.9174178121625</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121625</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121625</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121625</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270425</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832661</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,19 +7731,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409392646</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.5498640939262</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345294755</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294857</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067451</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.44677382459292</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194402</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>70.88187642683852</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.412908766</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>941027.4129087656</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087656</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087656</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
     <row r="16">
@@ -26320,13 +26320,13 @@
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
@@ -26335,25 +26335,25 @@
         <v>484287.9598140037</v>
       </c>
       <c r="J2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
+        <v>484287.9598140035</v>
+      </c>
+      <c r="M2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="M2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="N2" t="n">
-        <v>484287.9598140035</v>
-      </c>
       <c r="O2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
         <v>92793.842883194</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
@@ -26433,13 +26433,13 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
@@ -26457,7 +26457,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26528,40 +26528,40 @@
         <v>291897.2784739827</v>
       </c>
       <c r="E6" t="n">
-        <v>44146.16007089897</v>
+        <v>44111.42214546238</v>
       </c>
       <c r="F6" t="n">
-        <v>369558.6218782538</v>
+        <v>369523.8839528182</v>
       </c>
       <c r="G6" t="n">
-        <v>369558.6218782537</v>
+        <v>369523.8839528182</v>
       </c>
       <c r="H6" t="n">
-        <v>369558.6218782536</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="I6" t="n">
-        <v>369558.6218782538</v>
+        <v>369523.8839528183</v>
       </c>
       <c r="J6" t="n">
-        <v>152027.4194809764</v>
+        <v>151992.6815555407</v>
       </c>
       <c r="K6" t="n">
-        <v>369558.6218782537</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="L6" t="n">
-        <v>369558.6218782538</v>
+        <v>369523.8839528179</v>
       </c>
       <c r="M6" t="n">
-        <v>284503.5939427421</v>
+        <v>284468.8560173061</v>
       </c>
       <c r="N6" t="n">
-        <v>369558.6218782536</v>
+        <v>369523.883952818</v>
       </c>
       <c r="O6" t="n">
-        <v>369558.6218782536</v>
+        <v>369523.8839528179</v>
       </c>
       <c r="P6" t="n">
-        <v>369558.6218782538</v>
+        <v>369523.883952818</v>
       </c>
     </row>
   </sheetData>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,31 +26975,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>67.83092071305822</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734502</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>178.2263305366263</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.6980706244454</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.4732379112239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>79.09653893143599</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>101.9313958891307</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.0688818921489</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>198.6143028739362</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100.0026523482567</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>75.90496054965101</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,19 +28059,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-5.396244159244227e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-7.669980913676548e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29253,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29721,7 +29721,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-3.109469020701095e-12</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -31601,13 +31601,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>613.2529048371018</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>302.3396059822671</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>461.1007071927461</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33281,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,10 +33971,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>235.5705495535876</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,13 +34217,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>661.8411144019726</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245835</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394707</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>471.1188709150834</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>163.7852262023929</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>318.5044627483017</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36929,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>92.97430510914316</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37947,7 +37947,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899085</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060454</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799544</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
